--- a/Question_Set2/Programming skills/AJAX.xlsx
+++ b/Question_Set2/Programming skills/AJAX.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'The code below contains an error. Which option describes the correct way to fix it? const request = $.get("/test")\nrequest.success((data)=&amp;gt{\n    data = JSON.parse(data)\n    console.log(data)\n})', 'ques_type': 15, 'options': ['A success function must be passed as a parameter to $.get().', 'The line data = JSON.parse(data) should be removed.', 'The function request.success should be replaced with request.then.', 'The arrow function should be changed to anonymous function.'], 'score': ['The function request.success should be replaced with request.then.']}, {'title': 'In the code below, which property contains the response status code? const request = $.ajax("/test", {\n           type: "GET",\n           success: function(data, textStatus, xhr){\n               //Display status code\n           }\n})', 'ques_type': 2, 'options': ['textStatus', 'xhr.status', 'data.statusCode', 'xhr.code'], 'score': 'xhr.status'}, {'title': 'True or false: The response from the fetch request will be displayed in the console. let response\nfetch("/test")\n.then(response =&amp;gt response.json())\n.then(data =&amp;gt response = data)\n \nconsole.log(response)', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'False'}, {'title': 'The request below returns the following data: {"data": [\n   1,2,3,4\n]}\n You want to insert the four numbers in the response data above as div elements in the container. Which snippet of code accomplishes this? &amp;ltdiv class="container"&amp;gt&amp;lt/div&amp;gt\n   &amp;ltscript&amp;gt\n       let response\n       fetch("/test")\n       .then(response =&amp;gt response.json())\n       .then(data =&amp;gt {\n             //your code goes here\n         })\n   &amp;lt/script&amp;gt', 'ques_type': 2, 'options': ['const container = document.querySelector(".container")\ndata.data.forEach((elm)=&amp;gt{\n   container.append("&amp;ltdiv&amp;gt"+elm+"&amp;lt/div&amp;gt")\n})\n', 'const container = document.querySelector(".container")\ndata.data.forEach((elm)=&amp;gt{\n     container.innerHTML += "&amp;ltdiv&amp;gt"+elm+"&amp;lt/div&amp;gt"\n })\n', 'data = JSON.parse(data)\nconst container = document.querySelector(".container")\ndata.forEach((elm)=&amp;gt{\n   const div = document.createElement("div")\n   div.innerText = elm\n   container.append(div)\n})\n', 'const container = document.querySelector(".container")\ndata.map((elm)=&amp;gt{\n   const div = document.createElement("div")\n   div.innerText = elm\n   container.append(div)\n})\n'], 'score': 'const container = document.querySelector(".container")\ndata.data.forEach((elm)=&amp;gt{\n     container.innerHTML += "&amp;ltdiv&amp;gt"+elm+"&amp;lt/div&amp;gt"\n })'}]</t>
+    <t>questions = [
+    {
+        "title": "The code below contains an error. Which option describes the correct way to fix it? const request = $.get(\"/test\")\nrequest.success((data)=&amp;gt{\n    data = JSON.parse(data)\n    console.log(data)\n})",
+        "ques_type": 15,
+        "options": [
+            "A success function must be passed as a parameter to $.get().",
+            "The line data = JSON.parse(data) should be removed.",
+            "The function request.success should be replaced with request.then.",
+            "The arrow function should be changed to anonymous function."
+        ],
+        "score": [
+            "The function request.success should be replaced with request.then."
+        ]
+    },
+    {
+        "title": "In the code below, which property contains the response status code? const request = $.ajax(\"/test\", {\n           type: \"GET\",\n           success: function(data, textStatus, xhr){\n               //Display status code\n           }\n})",
+        "ques_type": 2,
+        "options": [
+            "textStatus",
+            "xhr.status",
+            "data.statusCode",
+            "xhr.code"
+        ],
+        "score": "xhr.status"
+    },
+    {
+        "title": "True or false: The response from the fetch request will be displayed in the console. let response\nfetch(\"/test\")\n.then(response =&amp;gt response.json())\n.then(data =&amp;gt response = data)\n \nconsole.log(response)",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "False"
+    },
+    {
+        "title": "The request below returns the following data: {\"data\": [\n   1,2,3,4\n]}\n You want to insert the four numbers in the response data above as div elements in the container. Which snippet of code accomplishes this? &amp;ltdiv class=\"container\"&amp;gt&amp;lt/div&amp;gt\n   &amp;ltscript&amp;gt\n       let response\n       fetch(\"/test\")\n       .then(response =&amp;gt response.json())\n       .then(data =&amp;gt {\n             //your code goes here\n         })\n   &amp;lt/script&amp;gt",
+        "ques_type": 2,
+        "options": [
+            "const container = document.querySelector(\".container\")\ndata.data.forEach((elm)=&amp;gt{\n   container.append(\"&amp;ltdiv&amp;gt\"+elm+\"&amp;lt/div&amp;gt\")\n})\n",
+            "const container = document.querySelector(\".container\")\ndata.data.forEach((elm)=&amp;gt{\n     container.innerHTML += \"&amp;ltdiv&amp;gt\"+elm+\"&amp;lt/div&amp;gt\"\n })\n",
+            "data = JSON.parse(data)\nconst container = document.querySelector(\".container\")\ndata.forEach((elm)=&amp;gt{\n   const div = document.createElement(\"div\")\n   div.innerText = elm\n   container.append(div)\n})\n",
+            "const container = document.querySelector(\".container\")\ndata.map((elm)=&amp;gt{\n   const div = document.createElement(\"div\")\n   div.innerText = elm\n   container.append(div)\n})\n"
+        ],
+        "score": "const container = document.querySelector(\".container\")\ndata.data.forEach((elm)=&amp;gt{\n     container.innerHTML += \"&amp;ltdiv&amp;gt\"+elm+\"&amp;lt/div&amp;gt\"\n })"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
